--- a/Code/Results/Cases/Case_3_81/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_81/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00939832240227</v>
+        <v>1.036300787868605</v>
       </c>
       <c r="D2">
-        <v>1.024953397445471</v>
+        <v>1.039486257509548</v>
       </c>
       <c r="E2">
-        <v>1.020258331340503</v>
+        <v>1.044854920479544</v>
       </c>
       <c r="F2">
-        <v>1.021665033519136</v>
+        <v>1.054943044905987</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045021746105828</v>
+        <v>1.03750406556183</v>
       </c>
       <c r="J2">
-        <v>1.031301519510349</v>
+        <v>1.041409853827325</v>
       </c>
       <c r="K2">
-        <v>1.036075702375212</v>
+        <v>1.042271308535869</v>
       </c>
       <c r="L2">
-        <v>1.031442469504788</v>
+        <v>1.047624798620724</v>
       </c>
       <c r="M2">
-        <v>1.032830570866878</v>
+        <v>1.057684864806386</v>
       </c>
       <c r="N2">
-        <v>1.032766085959994</v>
+        <v>1.042888775271139</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013588930527207</v>
+        <v>1.037185561383763</v>
       </c>
       <c r="D3">
-        <v>1.028011166111181</v>
+        <v>1.040150680955219</v>
       </c>
       <c r="E3">
-        <v>1.024052663359852</v>
+        <v>1.045714901049047</v>
       </c>
       <c r="F3">
-        <v>1.026452756211019</v>
+        <v>1.056052238088701</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046185533682739</v>
+        <v>1.037700139899264</v>
       </c>
       <c r="J3">
-        <v>1.033715879871873</v>
+        <v>1.041938860580838</v>
       </c>
       <c r="K3">
-        <v>1.038297757416284</v>
+        <v>1.042746344899974</v>
       </c>
       <c r="L3">
-        <v>1.034386764618213</v>
+        <v>1.04829597473905</v>
       </c>
       <c r="M3">
-        <v>1.036757997296415</v>
+        <v>1.058606645936786</v>
       </c>
       <c r="N3">
-        <v>1.03518387499016</v>
+        <v>1.043418533274921</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016247388663936</v>
+        <v>1.037758498825932</v>
       </c>
       <c r="D4">
-        <v>1.029953434244859</v>
+        <v>1.040580904628125</v>
       </c>
       <c r="E4">
-        <v>1.026465091105067</v>
+        <v>1.046272184856157</v>
       </c>
       <c r="F4">
-        <v>1.029497510724082</v>
+        <v>1.056771304409433</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046915096273394</v>
+        <v>1.037826013803047</v>
       </c>
       <c r="J4">
-        <v>1.035244421925191</v>
+        <v>1.042280948434299</v>
       </c>
       <c r="K4">
-        <v>1.039703304343253</v>
+        <v>1.043053339620568</v>
       </c>
       <c r="L4">
-        <v>1.036254263185198</v>
+        <v>1.048730446826958</v>
       </c>
       <c r="M4">
-        <v>1.039252498924752</v>
+        <v>1.059203851114266</v>
       </c>
       <c r="N4">
-        <v>1.03671458774852</v>
+        <v>1.043761106932371</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017352704772753</v>
+        <v>1.037999463463835</v>
       </c>
       <c r="D5">
-        <v>1.030761523767739</v>
+        <v>1.040761840388028</v>
       </c>
       <c r="E5">
-        <v>1.027469379716419</v>
+        <v>1.046506661716478</v>
       </c>
       <c r="F5">
-        <v>1.030765248839669</v>
+        <v>1.057073920590527</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047216302859578</v>
+        <v>1.037878691406156</v>
       </c>
       <c r="J5">
-        <v>1.035879180009055</v>
+        <v>1.042424709754515</v>
       </c>
       <c r="K5">
-        <v>1.040286676772997</v>
+        <v>1.043182306886923</v>
       </c>
       <c r="L5">
-        <v>1.03703062188521</v>
+        <v>1.048913140060921</v>
       </c>
       <c r="M5">
-        <v>1.040290361170217</v>
+        <v>1.059455094938615</v>
       </c>
       <c r="N5">
-        <v>1.037350247261671</v>
+        <v>1.043905072410152</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017537582893999</v>
+        <v>1.038039928419086</v>
       </c>
       <c r="D6">
-        <v>1.030896717781734</v>
+        <v>1.040792224345252</v>
       </c>
       <c r="E6">
-        <v>1.027637433499448</v>
+        <v>1.046546042795668</v>
       </c>
       <c r="F6">
-        <v>1.030977400850858</v>
+        <v>1.057124749953201</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04726655756911</v>
+        <v>1.037887522130373</v>
       </c>
       <c r="J6">
-        <v>1.035985305354627</v>
+        <v>1.042448844811097</v>
       </c>
       <c r="K6">
-        <v>1.040384192443457</v>
+        <v>1.04320395555717</v>
       </c>
       <c r="L6">
-        <v>1.037160471374533</v>
+        <v>1.04894381744307</v>
       </c>
       <c r="M6">
-        <v>1.040463998650332</v>
+        <v>1.059497290334607</v>
       </c>
       <c r="N6">
-        <v>1.037456523317406</v>
+        <v>1.043929241741282</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016262205734452</v>
+        <v>1.037761718208905</v>
       </c>
       <c r="D7">
-        <v>1.029964264812161</v>
+        <v>1.040583322028431</v>
       </c>
       <c r="E7">
-        <v>1.026478548902963</v>
+        <v>1.04627531718383</v>
       </c>
       <c r="F7">
-        <v>1.029514497941573</v>
+        <v>1.056775346722884</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046919142471226</v>
+        <v>1.037826718626638</v>
       </c>
       <c r="J7">
-        <v>1.035252934107006</v>
+        <v>1.042282869587255</v>
       </c>
       <c r="K7">
-        <v>1.039711128673876</v>
+        <v>1.043055063255415</v>
       </c>
       <c r="L7">
-        <v>1.036264670902618</v>
+        <v>1.048732887822412</v>
       </c>
       <c r="M7">
-        <v>1.039266408940765</v>
+        <v>1.059207207545426</v>
       </c>
       <c r="N7">
-        <v>1.03672311201861</v>
+        <v>1.043763030813584</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010825823577724</v>
+        <v>1.036599711525193</v>
       </c>
       <c r="D8">
-        <v>1.025994459692338</v>
+        <v>1.039710740105378</v>
       </c>
       <c r="E8">
-        <v>1.021549707158222</v>
+        <v>1.045145384608738</v>
       </c>
       <c r="F8">
-        <v>1.023294373700416</v>
+        <v>1.055317622957431</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045419991205192</v>
+        <v>1.037570536382943</v>
       </c>
       <c r="J8">
-        <v>1.032124585471946</v>
+        <v>1.041588678048191</v>
       </c>
       <c r="K8">
-        <v>1.036833465598594</v>
+        <v>1.042431928528408</v>
       </c>
       <c r="L8">
-        <v>1.032445476270285</v>
+        <v>1.047851588617595</v>
       </c>
       <c r="M8">
-        <v>1.03416778849524</v>
+        <v>1.057996228886971</v>
       </c>
       <c r="N8">
-        <v>1.033590320769661</v>
+        <v>1.043067853442911</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000819114215898</v>
+        <v>1.034555450503612</v>
       </c>
       <c r="D9">
-        <v>1.018709061254981</v>
+        <v>1.038175479643083</v>
       </c>
       <c r="E9">
-        <v>1.012520860181541</v>
+        <v>1.043160627755306</v>
       </c>
       <c r="F9">
-        <v>1.011904073814046</v>
+        <v>1.052759270589346</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042592676563892</v>
+        <v>1.037111481444725</v>
       </c>
       <c r="J9">
-        <v>1.026342980569748</v>
+        <v>1.040363820854391</v>
       </c>
       <c r="K9">
-        <v>1.031505718332639</v>
+        <v>1.041330977019868</v>
       </c>
       <c r="L9">
-        <v>1.025414009718475</v>
+        <v>1.046300022227499</v>
       </c>
       <c r="M9">
-        <v>1.02480692365173</v>
+        <v>1.055868129516777</v>
       </c>
       <c r="N9">
-        <v>1.027800505325343</v>
+        <v>1.041841256811402</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9938310320968251</v>
+        <v>1.033194925940619</v>
       </c>
       <c r="D10">
-        <v>1.013639362769547</v>
+        <v>1.037153631619897</v>
       </c>
       <c r="E10">
-        <v>1.006246757692422</v>
+        <v>1.041841787940188</v>
       </c>
       <c r="F10">
-        <v>1.003989014954968</v>
+        <v>1.051060720705059</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040574470827562</v>
+        <v>1.036800348092571</v>
       </c>
       <c r="J10">
-        <v>1.022291563114415</v>
+        <v>1.039546228826786</v>
       </c>
       <c r="K10">
-        <v>1.027766645024091</v>
+        <v>1.040595113461808</v>
       </c>
       <c r="L10">
-        <v>1.020504133596962</v>
+        <v>1.045266643520442</v>
       </c>
       <c r="M10">
-        <v>1.018286618090876</v>
+        <v>1.054453358243677</v>
       </c>
       <c r="N10">
-        <v>1.023743334392519</v>
+        <v>1.041022503709338</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9907227628843608</v>
+        <v>1.032606367243291</v>
       </c>
       <c r="D11">
-        <v>1.011389406880541</v>
+        <v>1.036711571534881</v>
       </c>
       <c r="E11">
-        <v>1.003463815121491</v>
+        <v>1.04127175898505</v>
       </c>
       <c r="F11">
-        <v>1.000477576665506</v>
+        <v>1.050326907676914</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039666884192171</v>
+        <v>1.036664421835066</v>
       </c>
       <c r="J11">
-        <v>1.020486644297113</v>
+        <v>1.039191972287152</v>
       </c>
       <c r="K11">
-        <v>1.026099685158169</v>
+        <v>1.040276039179043</v>
       </c>
       <c r="L11">
-        <v>1.018320703265998</v>
+        <v>1.044819428646358</v>
       </c>
       <c r="M11">
-        <v>1.015390492206589</v>
+        <v>1.053841699118587</v>
       </c>
       <c r="N11">
-        <v>1.02193585238347</v>
+        <v>1.040667744084785</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9895551778649879</v>
+        <v>1.03238783518029</v>
       </c>
       <c r="D12">
-        <v>1.010545059600829</v>
+        <v>1.036547433292909</v>
       </c>
       <c r="E12">
-        <v>1.002419633525574</v>
+        <v>1.041060181964107</v>
       </c>
       <c r="F12">
-        <v>0.9991599057442432</v>
+        <v>1.050054588805302</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039324515765103</v>
+        <v>1.036613752486783</v>
       </c>
       <c r="J12">
-        <v>1.019808255111027</v>
+        <v>1.039060351442369</v>
       </c>
       <c r="K12">
-        <v>1.02547298356272</v>
+        <v>1.040157455581376</v>
       </c>
       <c r="L12">
-        <v>1.017500623531149</v>
+        <v>1.044653350913284</v>
       </c>
       <c r="M12">
-        <v>1.014303218351716</v>
+        <v>1.053614644830838</v>
       </c>
       <c r="N12">
-        <v>1.021256499806926</v>
+        <v>1.040535936323305</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9898062297528538</v>
+        <v>1.032434707192651</v>
       </c>
       <c r="D13">
-        <v>1.010726571257397</v>
+        <v>1.036582638649216</v>
       </c>
       <c r="E13">
-        <v>1.002644096744301</v>
+        <v>1.041105558823376</v>
       </c>
       <c r="F13">
-        <v>0.9994431676067855</v>
+        <v>1.050112990709512</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039398195712749</v>
+        <v>1.036624629383815</v>
       </c>
       <c r="J13">
-        <v>1.019954138159885</v>
+        <v>1.039088586092672</v>
       </c>
       <c r="K13">
-        <v>1.025607758772064</v>
+        <v>1.040182895100431</v>
       </c>
       <c r="L13">
-        <v>1.017676950453466</v>
+        <v>1.044688973425151</v>
       </c>
       <c r="M13">
-        <v>1.014536973629004</v>
+        <v>1.05366334225267</v>
       </c>
       <c r="N13">
-        <v>1.021402590026447</v>
+        <v>1.04056421107005</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9906265198237291</v>
+        <v>1.032588301577661</v>
       </c>
       <c r="D14">
-        <v>1.011319790920476</v>
+        <v>1.036698002532191</v>
       </c>
       <c r="E14">
-        <v>1.003377719542878</v>
+        <v>1.041254266750145</v>
       </c>
       <c r="F14">
-        <v>1.00036893458966</v>
+        <v>1.050304392568206</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03963869215215</v>
+        <v>1.036660237165641</v>
       </c>
       <c r="J14">
-        <v>1.020430732996541</v>
+        <v>1.039181093159182</v>
       </c>
       <c r="K14">
-        <v>1.026048037105376</v>
+        <v>1.040266238346309</v>
       </c>
       <c r="L14">
-        <v>1.018253102552899</v>
+        <v>1.044805699832649</v>
       </c>
       <c r="M14">
-        <v>1.015300856428907</v>
+        <v>1.05382292781444</v>
       </c>
       <c r="N14">
-        <v>1.021879861682437</v>
+        <v>1.040656849507206</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9911301798530202</v>
+        <v>1.032682947422915</v>
       </c>
       <c r="D15">
-        <v>1.011684139709201</v>
+        <v>1.036769090360099</v>
       </c>
       <c r="E15">
-        <v>1.003828324736784</v>
+        <v>1.041345911468541</v>
       </c>
       <c r="F15">
-        <v>1.000937536606829</v>
+        <v>1.050422354988168</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03978616836792</v>
+        <v>1.036682152421505</v>
       </c>
       <c r="J15">
-        <v>1.020723312732748</v>
+        <v>1.039238085313043</v>
       </c>
       <c r="K15">
-        <v>1.026318300933753</v>
+        <v>1.040317580260134</v>
       </c>
       <c r="L15">
-        <v>1.018606875477232</v>
+        <v>1.044877623860984</v>
       </c>
       <c r="M15">
-        <v>1.015769964581541</v>
+        <v>1.053921272744017</v>
       </c>
       <c r="N15">
-        <v>1.022172856915429</v>
+        <v>1.040713922596462</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9940355267700726</v>
+        <v>1.033233998480666</v>
       </c>
       <c r="D16">
-        <v>1.013787498919654</v>
+        <v>1.037182978385963</v>
       </c>
       <c r="E16">
-        <v>1.006430013333231</v>
+        <v>1.041879640848468</v>
       </c>
       <c r="F16">
-        <v>1.004220223786852</v>
+        <v>1.051109456736725</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040633978718176</v>
+        <v>1.036809343759592</v>
       </c>
       <c r="J16">
-        <v>1.022410253123588</v>
+        <v>1.039569734820345</v>
       </c>
       <c r="K16">
-        <v>1.02787623930983</v>
+        <v>1.040616280173674</v>
       </c>
       <c r="L16">
-        <v>1.020647794843462</v>
+        <v>1.045296328943172</v>
       </c>
       <c r="M16">
-        <v>1.018477241524277</v>
+        <v>1.05449397206482</v>
       </c>
       <c r="N16">
-        <v>1.023862192955118</v>
+        <v>1.041046043084105</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9958354666281248</v>
+        <v>1.03357980826003</v>
       </c>
       <c r="D17">
-        <v>1.015091957405828</v>
+        <v>1.037442709346518</v>
       </c>
       <c r="E17">
-        <v>1.008043896350209</v>
+        <v>1.042214713812893</v>
       </c>
       <c r="F17">
-        <v>1.006256338810419</v>
+        <v>1.051540905409684</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041156638511386</v>
+        <v>1.036888805692644</v>
       </c>
       <c r="J17">
-        <v>1.023454627785037</v>
+        <v>1.039777707858085</v>
       </c>
       <c r="K17">
-        <v>1.028840445147315</v>
+        <v>1.040803529492541</v>
       </c>
       <c r="L17">
-        <v>1.02191234173774</v>
+        <v>1.045559037847947</v>
       </c>
       <c r="M17">
-        <v>1.020155553832996</v>
+        <v>1.054853465235303</v>
       </c>
       <c r="N17">
-        <v>1.024908050748379</v>
+        <v>1.041254311467413</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9968774389960703</v>
+        <v>1.033781566962483</v>
       </c>
       <c r="D18">
-        <v>1.015847571612404</v>
+        <v>1.037594245180915</v>
       </c>
       <c r="E18">
-        <v>1.008978895439686</v>
+        <v>1.042410256212463</v>
       </c>
       <c r="F18">
-        <v>1.00743590070413</v>
+        <v>1.051792723210216</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041458259898732</v>
+        <v>1.036935038341921</v>
       </c>
       <c r="J18">
-        <v>1.024058934179407</v>
+        <v>1.039898992391773</v>
       </c>
       <c r="K18">
-        <v>1.029398249515374</v>
+        <v>1.04091270628407</v>
       </c>
       <c r="L18">
-        <v>1.022644420660406</v>
+        <v>1.045712295072871</v>
       </c>
       <c r="M18">
-        <v>1.021127503479113</v>
+        <v>1.055063242744461</v>
       </c>
       <c r="N18">
-        <v>1.025513215327144</v>
+        <v>1.041375768239051</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9972314035892414</v>
+        <v>1.033850370542735</v>
       </c>
       <c r="D19">
-        <v>1.01610433670858</v>
+        <v>1.037645921582958</v>
       </c>
       <c r="E19">
-        <v>1.009296644012746</v>
+        <v>1.042476948042378</v>
       </c>
       <c r="F19">
-        <v>1.007836753217828</v>
+        <v>1.051878613865239</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041560561437231</v>
+        <v>1.036950782763326</v>
       </c>
       <c r="J19">
-        <v>1.024264173178134</v>
+        <v>1.039940343418296</v>
       </c>
       <c r="K19">
-        <v>1.029587675416746</v>
+        <v>1.040949925498539</v>
       </c>
       <c r="L19">
-        <v>1.022893118668456</v>
+        <v>1.0457645557932</v>
       </c>
       <c r="M19">
-        <v>1.021457746219536</v>
+        <v>1.05513478689713</v>
       </c>
       <c r="N19">
-        <v>1.02571874578879</v>
+        <v>1.041417177988775</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9956431720845246</v>
+        <v>1.033542700580116</v>
       </c>
       <c r="D20">
-        <v>1.01495254757115</v>
+        <v>1.037414838611734</v>
       </c>
       <c r="E20">
-        <v>1.007871402633243</v>
+        <v>1.042178753301471</v>
       </c>
       <c r="F20">
-        <v>1.006038722670354</v>
+        <v>1.051494598380665</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041100898228479</v>
+        <v>1.036880292189605</v>
       </c>
       <c r="J20">
-        <v>1.023343081423042</v>
+        <v>1.039755396652379</v>
       </c>
       <c r="K20">
-        <v>1.028737473089637</v>
+        <v>1.040783443808682</v>
       </c>
       <c r="L20">
-        <v>1.02177724075189</v>
+        <v>1.045530849224093</v>
       </c>
       <c r="M20">
-        <v>1.019976213062169</v>
+        <v>1.054814885577289</v>
       </c>
       <c r="N20">
-        <v>1.024796345977754</v>
+        <v>1.041231968577237</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.990385330193849</v>
+        <v>1.032543069508607</v>
       </c>
       <c r="D21">
-        <v>1.011145343538886</v>
+        <v>1.036664029005675</v>
       </c>
       <c r="E21">
-        <v>1.003161979402033</v>
+        <v>1.041210471624945</v>
       </c>
       <c r="F21">
-        <v>1.000096694303632</v>
+        <v>1.050248022527838</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039568018458973</v>
+        <v>1.036649756533911</v>
       </c>
       <c r="J21">
-        <v>1.0202906104598</v>
+        <v>1.039153853070162</v>
       </c>
       <c r="K21">
-        <v>1.02591859632879</v>
+        <v>1.04024169762971</v>
       </c>
       <c r="L21">
-        <v>1.018083693715848</v>
+        <v>1.044771325764031</v>
       </c>
       <c r="M21">
-        <v>1.015076235013561</v>
+        <v>1.053775929884543</v>
       </c>
       <c r="N21">
-        <v>1.021739540155622</v>
+        <v>1.040629570734134</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9870037384084088</v>
+        <v>1.031915053199355</v>
       </c>
       <c r="D22">
-        <v>1.008701557160421</v>
+        <v>1.036192327846222</v>
       </c>
       <c r="E22">
-        <v>1.00014010022146</v>
+        <v>1.040602584138794</v>
       </c>
       <c r="F22">
-        <v>0.9962829779765512</v>
+        <v>1.04946570908541</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038573756488466</v>
+        <v>1.036503766809198</v>
       </c>
       <c r="J22">
-        <v>1.01832514170498</v>
+        <v>1.03877544137944</v>
       </c>
       <c r="K22">
-        <v>1.024102583177345</v>
+        <v>1.039900703550288</v>
       </c>
       <c r="L22">
-        <v>1.01570878220994</v>
+        <v>1.044294002312695</v>
       </c>
       <c r="M22">
-        <v>1.011928431186901</v>
+        <v>1.053123525895736</v>
       </c>
       <c r="N22">
-        <v>1.019771280209727</v>
+        <v>1.040250621655407</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9888037986194115</v>
+        <v>1.032247929578746</v>
       </c>
       <c r="D23">
-        <v>1.01000193484841</v>
+        <v>1.036442350704021</v>
       </c>
       <c r="E23">
-        <v>1.001748010423813</v>
+        <v>1.04092475015332</v>
       </c>
       <c r="F23">
-        <v>0.9983123226235189</v>
+        <v>1.049880289673601</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03910378903832</v>
+        <v>1.036581257395556</v>
       </c>
       <c r="J23">
-        <v>1.019371583703874</v>
+        <v>1.038976062972563</v>
       </c>
       <c r="K23">
-        <v>1.025069538128503</v>
+        <v>1.040081506348495</v>
       </c>
       <c r="L23">
-        <v>1.01697290759927</v>
+        <v>1.044547019407942</v>
       </c>
       <c r="M23">
-        <v>1.013603698431981</v>
+        <v>1.053469298710487</v>
       </c>
       <c r="N23">
-        <v>1.020819208276288</v>
+        <v>1.040451528154205</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9957300860835676</v>
+        <v>1.033559467777529</v>
       </c>
       <c r="D24">
-        <v>1.015015557084208</v>
+        <v>1.037427432076268</v>
       </c>
       <c r="E24">
-        <v>1.007949364709393</v>
+        <v>1.042195001999795</v>
       </c>
       <c r="F24">
-        <v>1.006137078921875</v>
+        <v>1.051515522036143</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04112609485328</v>
+        <v>1.036884139434108</v>
       </c>
       <c r="J24">
-        <v>1.023393499414663</v>
+        <v>1.039765478195846</v>
       </c>
       <c r="K24">
-        <v>1.028784015924184</v>
+        <v>1.040792519796268</v>
       </c>
       <c r="L24">
-        <v>1.021838304068138</v>
+        <v>1.045543586377122</v>
       </c>
       <c r="M24">
-        <v>1.02005727096927</v>
+        <v>1.054832317782304</v>
       </c>
       <c r="N24">
-        <v>1.024846835568708</v>
+        <v>1.041242064437652</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003459655975915</v>
+        <v>1.035083537764911</v>
       </c>
       <c r="D25">
-        <v>1.020628649330252</v>
+        <v>1.038572095121158</v>
       </c>
       <c r="E25">
-        <v>1.014898119744247</v>
+        <v>1.043672977132548</v>
       </c>
       <c r="F25">
-        <v>1.014902893356593</v>
+        <v>1.053419433690068</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043346447612186</v>
+        <v>1.037231058880745</v>
       </c>
       <c r="J25">
-        <v>1.027871147227243</v>
+        <v>1.040680659874693</v>
       </c>
       <c r="K25">
-        <v>1.032914954908206</v>
+        <v>1.041615937906686</v>
       </c>
       <c r="L25">
-        <v>1.027269481413239</v>
+        <v>1.046700967723134</v>
       </c>
       <c r="M25">
-        <v>1.027274183664144</v>
+        <v>1.056417600522256</v>
       </c>
       <c r="N25">
-        <v>1.029330842154775</v>
+        <v>1.042158545779455</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_81/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_81/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036300787868605</v>
+        <v>1.009398322402269</v>
       </c>
       <c r="D2">
-        <v>1.039486257509548</v>
+        <v>1.02495339744547</v>
       </c>
       <c r="E2">
-        <v>1.044854920479544</v>
+        <v>1.020258331340502</v>
       </c>
       <c r="F2">
-        <v>1.054943044905987</v>
+        <v>1.021665033519135</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03750406556183</v>
+        <v>1.045021746105828</v>
       </c>
       <c r="J2">
-        <v>1.041409853827325</v>
+        <v>1.031301519510348</v>
       </c>
       <c r="K2">
-        <v>1.042271308535869</v>
+        <v>1.036075702375211</v>
       </c>
       <c r="L2">
-        <v>1.047624798620724</v>
+        <v>1.031442469504787</v>
       </c>
       <c r="M2">
-        <v>1.057684864806386</v>
+        <v>1.032830570866877</v>
       </c>
       <c r="N2">
-        <v>1.042888775271139</v>
+        <v>1.032766085959993</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037185561383763</v>
+        <v>1.013588930527206</v>
       </c>
       <c r="D3">
-        <v>1.040150680955219</v>
+        <v>1.02801116611118</v>
       </c>
       <c r="E3">
-        <v>1.045714901049047</v>
+        <v>1.024052663359851</v>
       </c>
       <c r="F3">
-        <v>1.056052238088701</v>
+        <v>1.026452756211018</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037700139899264</v>
+        <v>1.046185533682739</v>
       </c>
       <c r="J3">
-        <v>1.041938860580838</v>
+        <v>1.033715879871872</v>
       </c>
       <c r="K3">
-        <v>1.042746344899974</v>
+        <v>1.038297757416283</v>
       </c>
       <c r="L3">
-        <v>1.04829597473905</v>
+        <v>1.034386764618212</v>
       </c>
       <c r="M3">
-        <v>1.058606645936786</v>
+        <v>1.036757997296414</v>
       </c>
       <c r="N3">
-        <v>1.043418533274921</v>
+        <v>1.035183874990159</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037758498825932</v>
+        <v>1.016247388663936</v>
       </c>
       <c r="D4">
-        <v>1.040580904628125</v>
+        <v>1.029953434244859</v>
       </c>
       <c r="E4">
-        <v>1.046272184856157</v>
+        <v>1.026465091105067</v>
       </c>
       <c r="F4">
-        <v>1.056771304409433</v>
+        <v>1.029497510724081</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037826013803047</v>
+        <v>1.046915096273394</v>
       </c>
       <c r="J4">
-        <v>1.042280948434299</v>
+        <v>1.03524442192519</v>
       </c>
       <c r="K4">
-        <v>1.043053339620568</v>
+        <v>1.039703304343252</v>
       </c>
       <c r="L4">
-        <v>1.048730446826958</v>
+        <v>1.036254263185198</v>
       </c>
       <c r="M4">
-        <v>1.059203851114266</v>
+        <v>1.039252498924752</v>
       </c>
       <c r="N4">
-        <v>1.043761106932371</v>
+        <v>1.036714587748519</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037999463463835</v>
+        <v>1.017352704772752</v>
       </c>
       <c r="D5">
-        <v>1.040761840388028</v>
+        <v>1.030761523767738</v>
       </c>
       <c r="E5">
-        <v>1.046506661716478</v>
+        <v>1.027469379716419</v>
       </c>
       <c r="F5">
-        <v>1.057073920590527</v>
+        <v>1.030765248839669</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037878691406156</v>
+        <v>1.047216302859578</v>
       </c>
       <c r="J5">
-        <v>1.042424709754515</v>
+        <v>1.035879180009054</v>
       </c>
       <c r="K5">
-        <v>1.043182306886923</v>
+        <v>1.040286676772996</v>
       </c>
       <c r="L5">
-        <v>1.048913140060921</v>
+        <v>1.037030621885209</v>
       </c>
       <c r="M5">
-        <v>1.059455094938615</v>
+        <v>1.040290361170216</v>
       </c>
       <c r="N5">
-        <v>1.043905072410152</v>
+        <v>1.03735024726167</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038039928419086</v>
+        <v>1.017537582893999</v>
       </c>
       <c r="D6">
-        <v>1.040792224345252</v>
+        <v>1.030896717781734</v>
       </c>
       <c r="E6">
-        <v>1.046546042795668</v>
+        <v>1.027637433499448</v>
       </c>
       <c r="F6">
-        <v>1.057124749953201</v>
+        <v>1.030977400850857</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037887522130373</v>
+        <v>1.047266557569109</v>
       </c>
       <c r="J6">
-        <v>1.042448844811097</v>
+        <v>1.035985305354626</v>
       </c>
       <c r="K6">
-        <v>1.04320395555717</v>
+        <v>1.040384192443456</v>
       </c>
       <c r="L6">
-        <v>1.04894381744307</v>
+        <v>1.037160471374533</v>
       </c>
       <c r="M6">
-        <v>1.059497290334607</v>
+        <v>1.040463998650331</v>
       </c>
       <c r="N6">
-        <v>1.043929241741282</v>
+        <v>1.037456523317405</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037761718208905</v>
+        <v>1.016262205734451</v>
       </c>
       <c r="D7">
-        <v>1.040583322028431</v>
+        <v>1.029964264812161</v>
       </c>
       <c r="E7">
-        <v>1.04627531718383</v>
+        <v>1.026478548902963</v>
       </c>
       <c r="F7">
-        <v>1.056775346722884</v>
+        <v>1.029514497941573</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037826718626638</v>
+        <v>1.046919142471226</v>
       </c>
       <c r="J7">
-        <v>1.042282869587255</v>
+        <v>1.035252934107006</v>
       </c>
       <c r="K7">
-        <v>1.043055063255415</v>
+        <v>1.039711128673875</v>
       </c>
       <c r="L7">
-        <v>1.048732887822412</v>
+        <v>1.036264670902618</v>
       </c>
       <c r="M7">
-        <v>1.059207207545426</v>
+        <v>1.039266408940765</v>
       </c>
       <c r="N7">
-        <v>1.043763030813584</v>
+        <v>1.036723112018609</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036599711525193</v>
+        <v>1.010825823577723</v>
       </c>
       <c r="D8">
-        <v>1.039710740105378</v>
+        <v>1.025994459692338</v>
       </c>
       <c r="E8">
-        <v>1.045145384608738</v>
+        <v>1.021549707158221</v>
       </c>
       <c r="F8">
-        <v>1.055317622957431</v>
+        <v>1.023294373700415</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037570536382943</v>
+        <v>1.045419991205192</v>
       </c>
       <c r="J8">
-        <v>1.041588678048191</v>
+        <v>1.032124585471945</v>
       </c>
       <c r="K8">
-        <v>1.042431928528408</v>
+        <v>1.036833465598594</v>
       </c>
       <c r="L8">
-        <v>1.047851588617595</v>
+        <v>1.032445476270284</v>
       </c>
       <c r="M8">
-        <v>1.057996228886971</v>
+        <v>1.034167788495239</v>
       </c>
       <c r="N8">
-        <v>1.043067853442911</v>
+        <v>1.03359032076966</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034555450503612</v>
+        <v>1.000819114215898</v>
       </c>
       <c r="D9">
-        <v>1.038175479643083</v>
+        <v>1.018709061254981</v>
       </c>
       <c r="E9">
-        <v>1.043160627755306</v>
+        <v>1.012520860181541</v>
       </c>
       <c r="F9">
-        <v>1.052759270589346</v>
+        <v>1.011904073814046</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037111481444725</v>
+        <v>1.042592676563892</v>
       </c>
       <c r="J9">
-        <v>1.040363820854391</v>
+        <v>1.026342980569749</v>
       </c>
       <c r="K9">
-        <v>1.041330977019868</v>
+        <v>1.031505718332639</v>
       </c>
       <c r="L9">
-        <v>1.046300022227499</v>
+        <v>1.025414009718475</v>
       </c>
       <c r="M9">
-        <v>1.055868129516777</v>
+        <v>1.024806923651729</v>
       </c>
       <c r="N9">
-        <v>1.041841256811402</v>
+        <v>1.027800505325342</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033194925940619</v>
+        <v>0.993831032096826</v>
       </c>
       <c r="D10">
-        <v>1.037153631619897</v>
+        <v>1.013639362769547</v>
       </c>
       <c r="E10">
-        <v>1.041841787940188</v>
+        <v>1.006246757692423</v>
       </c>
       <c r="F10">
-        <v>1.051060720705059</v>
+        <v>1.003989014954968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036800348092571</v>
+        <v>1.040574470827562</v>
       </c>
       <c r="J10">
-        <v>1.039546228826786</v>
+        <v>1.022291563114416</v>
       </c>
       <c r="K10">
-        <v>1.040595113461808</v>
+        <v>1.027766645024091</v>
       </c>
       <c r="L10">
-        <v>1.045266643520442</v>
+        <v>1.020504133596962</v>
       </c>
       <c r="M10">
-        <v>1.054453358243677</v>
+        <v>1.018286618090876</v>
       </c>
       <c r="N10">
-        <v>1.041022503709338</v>
+        <v>1.02374333439252</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032606367243291</v>
+        <v>0.9907227628843611</v>
       </c>
       <c r="D11">
-        <v>1.036711571534881</v>
+        <v>1.011389406880542</v>
       </c>
       <c r="E11">
-        <v>1.04127175898505</v>
+        <v>1.003463815121492</v>
       </c>
       <c r="F11">
-        <v>1.050326907676914</v>
+        <v>1.000477576665507</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036664421835066</v>
+        <v>1.039666884192172</v>
       </c>
       <c r="J11">
-        <v>1.039191972287152</v>
+        <v>1.020486644297114</v>
       </c>
       <c r="K11">
-        <v>1.040276039179043</v>
+        <v>1.02609968515817</v>
       </c>
       <c r="L11">
-        <v>1.044819428646358</v>
+        <v>1.018320703265998</v>
       </c>
       <c r="M11">
-        <v>1.053841699118587</v>
+        <v>1.01539049220659</v>
       </c>
       <c r="N11">
-        <v>1.040667744084785</v>
+        <v>1.02193585238347</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03238783518029</v>
+        <v>0.9895551778649884</v>
       </c>
       <c r="D12">
-        <v>1.036547433292909</v>
+        <v>1.010545059600829</v>
       </c>
       <c r="E12">
-        <v>1.041060181964107</v>
+        <v>1.002419633525574</v>
       </c>
       <c r="F12">
-        <v>1.050054588805302</v>
+        <v>0.9991599057442435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036613752486783</v>
+        <v>1.039324515765103</v>
       </c>
       <c r="J12">
-        <v>1.039060351442369</v>
+        <v>1.019808255111027</v>
       </c>
       <c r="K12">
-        <v>1.040157455581376</v>
+        <v>1.02547298356272</v>
       </c>
       <c r="L12">
-        <v>1.044653350913284</v>
+        <v>1.01750062353115</v>
       </c>
       <c r="M12">
-        <v>1.053614644830838</v>
+        <v>1.014303218351716</v>
       </c>
       <c r="N12">
-        <v>1.040535936323305</v>
+        <v>1.021256499806927</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032434707192651</v>
+        <v>0.9898062297528534</v>
       </c>
       <c r="D13">
-        <v>1.036582638649216</v>
+        <v>1.010726571257396</v>
       </c>
       <c r="E13">
-        <v>1.041105558823376</v>
+        <v>1.002644096744301</v>
       </c>
       <c r="F13">
-        <v>1.050112990709512</v>
+        <v>0.9994431676067852</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036624629383815</v>
+        <v>1.039398195712749</v>
       </c>
       <c r="J13">
-        <v>1.039088586092672</v>
+        <v>1.019954138159885</v>
       </c>
       <c r="K13">
-        <v>1.040182895100431</v>
+        <v>1.025607758772064</v>
       </c>
       <c r="L13">
-        <v>1.044688973425151</v>
+        <v>1.017676950453466</v>
       </c>
       <c r="M13">
-        <v>1.05366334225267</v>
+        <v>1.014536973629004</v>
       </c>
       <c r="N13">
-        <v>1.04056421107005</v>
+        <v>1.021402590026447</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032588301577661</v>
+        <v>0.9906265198237277</v>
       </c>
       <c r="D14">
-        <v>1.036698002532191</v>
+        <v>1.011319790920475</v>
       </c>
       <c r="E14">
-        <v>1.041254266750145</v>
+        <v>1.003377719542877</v>
       </c>
       <c r="F14">
-        <v>1.050304392568206</v>
+        <v>1.000368934589658</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036660237165641</v>
+        <v>1.039638692152149</v>
       </c>
       <c r="J14">
-        <v>1.039181093159182</v>
+        <v>1.02043073299654</v>
       </c>
       <c r="K14">
-        <v>1.040266238346309</v>
+        <v>1.026048037105374</v>
       </c>
       <c r="L14">
-        <v>1.044805699832649</v>
+        <v>1.018253102552897</v>
       </c>
       <c r="M14">
-        <v>1.05382292781444</v>
+        <v>1.015300856428905</v>
       </c>
       <c r="N14">
-        <v>1.040656849507206</v>
+        <v>1.021879861682436</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032682947422915</v>
+        <v>0.9911301798530202</v>
       </c>
       <c r="D15">
-        <v>1.036769090360099</v>
+        <v>1.011684139709201</v>
       </c>
       <c r="E15">
-        <v>1.041345911468541</v>
+        <v>1.003828324736783</v>
       </c>
       <c r="F15">
-        <v>1.050422354988168</v>
+        <v>1.000937536606828</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036682152421505</v>
+        <v>1.03978616836792</v>
       </c>
       <c r="J15">
-        <v>1.039238085313043</v>
+        <v>1.020723312732748</v>
       </c>
       <c r="K15">
-        <v>1.040317580260134</v>
+        <v>1.026318300933753</v>
       </c>
       <c r="L15">
-        <v>1.044877623860984</v>
+        <v>1.018606875477232</v>
       </c>
       <c r="M15">
-        <v>1.053921272744017</v>
+        <v>1.015769964581541</v>
       </c>
       <c r="N15">
-        <v>1.040713922596462</v>
+        <v>1.022172856915429</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033233998480666</v>
+        <v>0.9940355267700713</v>
       </c>
       <c r="D16">
-        <v>1.037182978385963</v>
+        <v>1.013787498919653</v>
       </c>
       <c r="E16">
-        <v>1.041879640848468</v>
+        <v>1.006430013333229</v>
       </c>
       <c r="F16">
-        <v>1.051109456736725</v>
+        <v>1.00422022378685</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036809343759592</v>
+        <v>1.040633978718175</v>
       </c>
       <c r="J16">
-        <v>1.039569734820345</v>
+        <v>1.022410253123587</v>
       </c>
       <c r="K16">
-        <v>1.040616280173674</v>
+        <v>1.027876239309828</v>
       </c>
       <c r="L16">
-        <v>1.045296328943172</v>
+        <v>1.02064779484346</v>
       </c>
       <c r="M16">
-        <v>1.05449397206482</v>
+        <v>1.018477241524275</v>
       </c>
       <c r="N16">
-        <v>1.041046043084105</v>
+        <v>1.023862192955117</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03357980826003</v>
+        <v>0.9958354666281242</v>
       </c>
       <c r="D17">
-        <v>1.037442709346518</v>
+        <v>1.015091957405827</v>
       </c>
       <c r="E17">
-        <v>1.042214713812893</v>
+        <v>1.008043896350208</v>
       </c>
       <c r="F17">
-        <v>1.051540905409684</v>
+        <v>1.006256338810418</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036888805692644</v>
+        <v>1.041156638511386</v>
       </c>
       <c r="J17">
-        <v>1.039777707858085</v>
+        <v>1.023454627785036</v>
       </c>
       <c r="K17">
-        <v>1.040803529492541</v>
+        <v>1.028840445147315</v>
       </c>
       <c r="L17">
-        <v>1.045559037847947</v>
+        <v>1.021912341737739</v>
       </c>
       <c r="M17">
-        <v>1.054853465235303</v>
+        <v>1.020155553832996</v>
       </c>
       <c r="N17">
-        <v>1.041254311467413</v>
+        <v>1.024908050748378</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033781566962483</v>
+        <v>0.9968774389960708</v>
       </c>
       <c r="D18">
-        <v>1.037594245180915</v>
+        <v>1.015847571612405</v>
       </c>
       <c r="E18">
-        <v>1.042410256212463</v>
+        <v>1.008978895439686</v>
       </c>
       <c r="F18">
-        <v>1.051792723210216</v>
+        <v>1.00743590070413</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036935038341921</v>
+        <v>1.041458259898732</v>
       </c>
       <c r="J18">
-        <v>1.039898992391773</v>
+        <v>1.024058934179408</v>
       </c>
       <c r="K18">
-        <v>1.04091270628407</v>
+        <v>1.029398249515374</v>
       </c>
       <c r="L18">
-        <v>1.045712295072871</v>
+        <v>1.022644420660406</v>
       </c>
       <c r="M18">
-        <v>1.055063242744461</v>
+        <v>1.021127503479114</v>
       </c>
       <c r="N18">
-        <v>1.041375768239051</v>
+        <v>1.025513215327144</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033850370542735</v>
+        <v>0.9972314035892417</v>
       </c>
       <c r="D19">
-        <v>1.037645921582958</v>
+        <v>1.01610433670858</v>
       </c>
       <c r="E19">
-        <v>1.042476948042378</v>
+        <v>1.009296644012746</v>
       </c>
       <c r="F19">
-        <v>1.051878613865239</v>
+        <v>1.007836753217828</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036950782763326</v>
+        <v>1.041560561437231</v>
       </c>
       <c r="J19">
-        <v>1.039940343418296</v>
+        <v>1.024264173178134</v>
       </c>
       <c r="K19">
-        <v>1.040949925498539</v>
+        <v>1.029587675416746</v>
       </c>
       <c r="L19">
-        <v>1.0457645557932</v>
+        <v>1.022893118668456</v>
       </c>
       <c r="M19">
-        <v>1.05513478689713</v>
+        <v>1.021457746219537</v>
       </c>
       <c r="N19">
-        <v>1.041417177988775</v>
+        <v>1.02571874578879</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033542700580116</v>
+        <v>0.9956431720845242</v>
       </c>
       <c r="D20">
-        <v>1.037414838611734</v>
+        <v>1.01495254757115</v>
       </c>
       <c r="E20">
-        <v>1.042178753301471</v>
+        <v>1.007871402633242</v>
       </c>
       <c r="F20">
-        <v>1.051494598380665</v>
+        <v>1.006038722670354</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036880292189605</v>
+        <v>1.041100898228479</v>
       </c>
       <c r="J20">
-        <v>1.039755396652379</v>
+        <v>1.023343081423041</v>
       </c>
       <c r="K20">
-        <v>1.040783443808682</v>
+        <v>1.028737473089637</v>
       </c>
       <c r="L20">
-        <v>1.045530849224093</v>
+        <v>1.021777240751889</v>
       </c>
       <c r="M20">
-        <v>1.054814885577289</v>
+        <v>1.019976213062169</v>
       </c>
       <c r="N20">
-        <v>1.041231968577237</v>
+        <v>1.024796345977754</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032543069508607</v>
+        <v>0.9903853301938489</v>
       </c>
       <c r="D21">
-        <v>1.036664029005675</v>
+        <v>1.011145343538886</v>
       </c>
       <c r="E21">
-        <v>1.041210471624945</v>
+        <v>1.003161979402033</v>
       </c>
       <c r="F21">
-        <v>1.050248022527838</v>
+        <v>1.000096694303632</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036649756533911</v>
+        <v>1.039568018458973</v>
       </c>
       <c r="J21">
-        <v>1.039153853070162</v>
+        <v>1.0202906104598</v>
       </c>
       <c r="K21">
-        <v>1.04024169762971</v>
+        <v>1.02591859632879</v>
       </c>
       <c r="L21">
-        <v>1.044771325764031</v>
+        <v>1.018083693715848</v>
       </c>
       <c r="M21">
-        <v>1.053775929884543</v>
+        <v>1.015076235013561</v>
       </c>
       <c r="N21">
-        <v>1.040629570734134</v>
+        <v>1.021739540155621</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031915053199355</v>
+        <v>0.9870037384084088</v>
       </c>
       <c r="D22">
-        <v>1.036192327846222</v>
+        <v>1.008701557160421</v>
       </c>
       <c r="E22">
-        <v>1.040602584138794</v>
+        <v>1.00014010022146</v>
       </c>
       <c r="F22">
-        <v>1.04946570908541</v>
+        <v>0.9962829779765509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036503766809198</v>
+        <v>1.038573756488466</v>
       </c>
       <c r="J22">
-        <v>1.03877544137944</v>
+        <v>1.01832514170498</v>
       </c>
       <c r="K22">
-        <v>1.039900703550288</v>
+        <v>1.024102583177345</v>
       </c>
       <c r="L22">
-        <v>1.044294002312695</v>
+        <v>1.01570878220994</v>
       </c>
       <c r="M22">
-        <v>1.053123525895736</v>
+        <v>1.0119284311869</v>
       </c>
       <c r="N22">
-        <v>1.040250621655407</v>
+        <v>1.019771280209727</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032247929578746</v>
+        <v>0.9888037986194107</v>
       </c>
       <c r="D23">
-        <v>1.036442350704021</v>
+        <v>1.010001934848409</v>
       </c>
       <c r="E23">
-        <v>1.04092475015332</v>
+        <v>1.001748010423813</v>
       </c>
       <c r="F23">
-        <v>1.049880289673601</v>
+        <v>0.9983123226235179</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036581257395556</v>
+        <v>1.039103789038319</v>
       </c>
       <c r="J23">
-        <v>1.038976062972563</v>
+        <v>1.019371583703873</v>
       </c>
       <c r="K23">
-        <v>1.040081506348495</v>
+        <v>1.025069538128503</v>
       </c>
       <c r="L23">
-        <v>1.044547019407942</v>
+        <v>1.016972907599269</v>
       </c>
       <c r="M23">
-        <v>1.053469298710487</v>
+        <v>1.01360369843198</v>
       </c>
       <c r="N23">
-        <v>1.040451528154205</v>
+        <v>1.020819208276287</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033559467777529</v>
+        <v>0.9957300860835677</v>
       </c>
       <c r="D24">
-        <v>1.037427432076268</v>
+        <v>1.015015557084208</v>
       </c>
       <c r="E24">
-        <v>1.042195001999795</v>
+        <v>1.007949364709393</v>
       </c>
       <c r="F24">
-        <v>1.051515522036143</v>
+        <v>1.006137078921875</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036884139434108</v>
+        <v>1.04112609485328</v>
       </c>
       <c r="J24">
-        <v>1.039765478195846</v>
+        <v>1.023393499414664</v>
       </c>
       <c r="K24">
-        <v>1.040792519796268</v>
+        <v>1.028784015924185</v>
       </c>
       <c r="L24">
-        <v>1.045543586377122</v>
+        <v>1.021838304068138</v>
       </c>
       <c r="M24">
-        <v>1.054832317782304</v>
+        <v>1.02005727096927</v>
       </c>
       <c r="N24">
-        <v>1.041242064437652</v>
+        <v>1.024846835568708</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035083537764911</v>
+        <v>1.003459655975914</v>
       </c>
       <c r="D25">
-        <v>1.038572095121158</v>
+        <v>1.020628649330251</v>
       </c>
       <c r="E25">
-        <v>1.043672977132548</v>
+        <v>1.014898119744246</v>
       </c>
       <c r="F25">
-        <v>1.053419433690068</v>
+        <v>1.014902893356592</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037231058880745</v>
+        <v>1.043346447612186</v>
       </c>
       <c r="J25">
-        <v>1.040680659874693</v>
+        <v>1.027871147227243</v>
       </c>
       <c r="K25">
-        <v>1.041615937906686</v>
+        <v>1.032914954908204</v>
       </c>
       <c r="L25">
-        <v>1.046700967723134</v>
+        <v>1.027269481413239</v>
       </c>
       <c r="M25">
-        <v>1.056417600522256</v>
+        <v>1.027274183664143</v>
       </c>
       <c r="N25">
-        <v>1.042158545779455</v>
+        <v>1.029330842154774</v>
       </c>
     </row>
   </sheetData>
